--- a/workingfolder/python/tables/sce_moments.xlsx
+++ b/workingfolder/python/tables/sce_moments.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.250785827636719</v>
+        <v>-3.973643103449831E-08</v>
       </c>
       <c r="C2">
         <v>3.959151268005371</v>
@@ -572,37 +572,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D3">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E3">
-        <v>-0.6931082115386017</v>
+        <v>0.1597303064348723</v>
       </c>
       <c r="F3">
-        <v>4.190389372222833</v>
+        <v>2.713836019108593</v>
       </c>
       <c r="G3">
-        <v>4.075696378115167</v>
+        <v>1.260165004315388</v>
       </c>
       <c r="H3">
-        <v>0.1786449629053767</v>
+        <v>1.357485128991759</v>
       </c>
       <c r="I3">
-        <v>0.08646852834954168</v>
+        <v>1.860954346686789</v>
       </c>
       <c r="J3">
-        <v>0.05153083828515659</v>
+        <v>1.184153455403833</v>
       </c>
       <c r="K3">
-        <v>0.511906713613015</v>
+        <v>6.20458584844114</v>
       </c>
       <c r="L3">
-        <v>0.0003552214206337509</v>
+        <v>0.01252840826584656</v>
       </c>
       <c r="M3">
-        <v>0.0002162300257064107</v>
+        <v>0.005933893446967819</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -613,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D4">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E4">
-        <v>-0.6931082115386017</v>
+        <v>-0.05634054514634194</v>
       </c>
       <c r="F4">
-        <v>4.190389372222833</v>
+        <v>3.039639152562313</v>
       </c>
       <c r="G4">
-        <v>4.075696378115167</v>
+        <v>1.220843741232643</v>
       </c>
       <c r="H4">
-        <v>0.1786449629053767</v>
+        <v>1.495549088943689</v>
       </c>
       <c r="I4">
-        <v>0.08646852834954168</v>
+        <v>1.902072993280568</v>
       </c>
       <c r="J4">
-        <v>0.05153083828515659</v>
+        <v>1.109834445167124</v>
       </c>
       <c r="K4">
-        <v>0.511906713613015</v>
+        <v>6.20458584844114</v>
       </c>
       <c r="L4">
-        <v>0.0003552214206337509</v>
+        <v>0.01252840826584656</v>
       </c>
       <c r="M4">
-        <v>0.0002162300257064107</v>
+        <v>0.005933893446967819</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -654,43 +654,79 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D5">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E5">
-        <v>-0.6937389791710641</v>
+        <v>-0.05634054514634194</v>
       </c>
       <c r="F5">
-        <v>4.202787941691995</v>
+        <v>3.039639152562313</v>
       </c>
       <c r="G5">
-        <v>4.086175845536076</v>
+        <v>1.220843741232643</v>
       </c>
       <c r="H5">
-        <v>0.1836072749518362</v>
+        <v>1.495549088943689</v>
       </c>
       <c r="I5">
-        <v>0.0887678648297799</v>
+        <v>1.902072993280568</v>
       </c>
       <c r="J5">
-        <v>0.05286637294483363</v>
+        <v>1.109834445167124</v>
       </c>
       <c r="K5">
-        <v>0.5293905507882913</v>
+        <v>6.20458584844114</v>
       </c>
       <c r="L5">
-        <v>0.000463610853505767</v>
+        <v>0.01252840826584656</v>
       </c>
       <c r="M5">
-        <v>0.0003116318580757357</v>
+        <v>0.005933893446967819</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>11.03038649796165</v>
+      </c>
+      <c r="D6">
+        <v>9.159267103524588</v>
+      </c>
+      <c r="E6">
+        <v>-0.03129893233941866</v>
+      </c>
+      <c r="F6">
+        <v>3.839575757841913</v>
+      </c>
+      <c r="G6">
+        <v>-0.01994980750244963</v>
+      </c>
+      <c r="H6">
+        <v>8.003052725756468E-10</v>
+      </c>
+      <c r="I6">
+        <v>2.47658767146454E-21</v>
+      </c>
+      <c r="J6">
+        <v>1.14057367153024E-22</v>
+      </c>
+      <c r="K6">
+        <v>3.424903828327841</v>
+      </c>
+      <c r="L6">
+        <v>1.33317492982351E-28</v>
+      </c>
+      <c r="M6">
+        <v>1.336035820230856E-28</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -700,37 +736,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D7">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E7">
-        <v>-0.6590644740866439</v>
+        <v>0.008651569081671613</v>
       </c>
       <c r="F7">
-        <v>4.00444768927933</v>
+        <v>3.580009255957597</v>
       </c>
       <c r="G7">
-        <v>3.857098543907423</v>
+        <v>0.1127101358838678</v>
       </c>
       <c r="H7">
-        <v>1.395597748708319E-28</v>
+        <v>4.406086709259265E-28</v>
       </c>
       <c r="I7">
-        <v>6.251279892272792E-56</v>
+        <v>1.363339214312259E-54</v>
       </c>
       <c r="J7">
-        <v>8.204981489360238E-57</v>
+        <v>3.322689427154167E-55</v>
       </c>
       <c r="K7">
-        <v>0.1782021547626249</v>
+        <v>3.424834880236386</v>
       </c>
       <c r="L7">
-        <v>7.703719777548943E-34</v>
+        <v>1.119262147691079E-27</v>
       </c>
       <c r="M7">
-        <v>3.11426969730702E-33</v>
+        <v>1.092007793405155E-27</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -741,37 +777,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D8">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E8">
-        <v>-0.5824819429395566</v>
+        <v>0.1202246781991047</v>
       </c>
       <c r="F8">
-        <v>4.173749558693234</v>
+        <v>2.900803018595902</v>
       </c>
       <c r="G8">
-        <v>3.995787684242543</v>
+        <v>0.8386510598470626</v>
       </c>
       <c r="H8">
-        <v>0.2258993601564236</v>
+        <v>0.5118128579440012</v>
       </c>
       <c r="I8">
-        <v>0.0001667985205570243</v>
+        <v>0.001108584282262656</v>
       </c>
       <c r="J8">
-        <v>9.742634340423201E-05</v>
+        <v>0.0002461425776835096</v>
       </c>
       <c r="K8">
-        <v>0.9949492513500359</v>
+        <v>5.068387254402111</v>
       </c>
       <c r="L8">
-        <v>1.109335647967048E-31</v>
+        <v>1.33317492982351E-28</v>
       </c>
       <c r="M8">
-        <v>1.121137091030527E-31</v>
+        <v>1.336035820230856E-28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -782,37 +818,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D9">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E9">
-        <v>-0.6261775562862343</v>
+        <v>0.005113958203569938</v>
       </c>
       <c r="F9">
-        <v>3.942461139267248</v>
+        <v>11.84572237979037</v>
       </c>
       <c r="G9">
-        <v>3.64746434906762</v>
+        <v>-0.6580550343440751</v>
       </c>
       <c r="H9">
-        <v>0.05139129841743812</v>
+        <v>2.391212601116135</v>
       </c>
       <c r="I9">
-        <v>0.01300819091973746</v>
+        <v>12.15337514323337</v>
       </c>
       <c r="J9">
-        <v>0.005401590183506478</v>
+        <v>0.6832001467173409</v>
       </c>
       <c r="K9">
-        <v>0.1782021547626249</v>
+        <v>3.424834880236386</v>
       </c>
       <c r="L9">
-        <v>7.703719777548943E-34</v>
+        <v>1.109335647967048E-27</v>
       </c>
       <c r="M9">
-        <v>3.11426969730702E-33</v>
+        <v>1.082268069760972E-27</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -823,37 +859,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D10">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E10">
-        <v>-0.6227986537981829</v>
+        <v>0.006124853759927205</v>
       </c>
       <c r="F10">
-        <v>3.950656184309874</v>
+        <v>9.877710933824162</v>
       </c>
       <c r="G10">
-        <v>3.632585032422202</v>
+        <v>-1.184622164985516</v>
       </c>
       <c r="H10">
-        <v>0.1558390710928319</v>
+        <v>2.217541146533207</v>
       </c>
       <c r="I10">
-        <v>0.1196163161629219</v>
+        <v>8.79065527282544</v>
       </c>
       <c r="J10">
-        <v>0.04967011348153603</v>
+        <v>-0.6359761225589421</v>
       </c>
       <c r="K10">
-        <v>0.1782021547626249</v>
+        <v>3.424834880236386</v>
       </c>
       <c r="L10">
-        <v>7.703719777548943E-34</v>
+        <v>1.109335647967048E-27</v>
       </c>
       <c r="M10">
-        <v>3.11426969730702E-33</v>
+        <v>1.082268069760972E-27</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -864,37 +900,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-74.48127096481971</v>
+        <v>11.03038649796165</v>
       </c>
       <c r="D11">
-        <v>-74.57031881057158</v>
+        <v>9.159267103524588</v>
       </c>
       <c r="E11">
-        <v>-0.6227986537981829</v>
+        <v>0.006124853759927205</v>
       </c>
       <c r="F11">
-        <v>3.950656184309874</v>
+        <v>9.877710933824162</v>
       </c>
       <c r="G11">
-        <v>3.632585032422202</v>
+        <v>-1.184622164985516</v>
       </c>
       <c r="H11">
-        <v>0.1558390710928319</v>
+        <v>2.217541146533207</v>
       </c>
       <c r="I11">
-        <v>0.1196163161629219</v>
+        <v>8.79065527282544</v>
       </c>
       <c r="J11">
-        <v>0.04967011348153603</v>
+        <v>-0.6359761225589421</v>
       </c>
       <c r="K11">
-        <v>0.1782021547626249</v>
+        <v>3.424834880236386</v>
       </c>
       <c r="L11">
-        <v>7.703719777548943E-34</v>
+        <v>1.109335647967048E-27</v>
       </c>
       <c r="M11">
-        <v>3.11426969730702E-33</v>
+        <v>1.082268069760972E-27</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -917,31 +953,31 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>-0.6999094786017106</v>
+        <v>3.04982991176699E-05</v>
       </c>
       <c r="F15">
-        <v>4.178800875840673</v>
+        <v>1.322257755762889E-06</v>
       </c>
       <c r="G15">
-        <v>4.066746997526971</v>
+        <v>1.687078097113069E-07</v>
       </c>
       <c r="H15">
-        <v>0.1421348427320567</v>
+        <v>2.853234980418634E-06</v>
       </c>
       <c r="I15">
-        <v>0.07039520635324058</v>
+        <v>1.155619596986963E-11</v>
       </c>
       <c r="J15">
-        <v>0.04271735707084989</v>
+        <v>1.049031921478155E-11</v>
       </c>
       <c r="K15">
-        <v>0.01839185497508083</v>
+        <v>5.735841689583602E-06</v>
       </c>
       <c r="L15">
-        <v>0.0006385207316637178</v>
+        <v>2.524842922867389E-11</v>
       </c>
       <c r="M15">
-        <v>0.0005343665375314463</v>
+        <v>2.519518469257158E-11</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -949,31 +985,31 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>-0.6999094786017106</v>
+        <v>-0.0002144720849258486</v>
       </c>
       <c r="F16">
-        <v>4.178800875840673</v>
+        <v>8.336368421167271E-06</v>
       </c>
       <c r="G16">
-        <v>4.066746997526971</v>
+        <v>1.316684930640294E-06</v>
       </c>
       <c r="H16">
-        <v>0.1421348427320567</v>
+        <v>2.168190164791682E-05</v>
       </c>
       <c r="I16">
-        <v>0.07039520635324058</v>
+        <v>1.922994564719176E-09</v>
       </c>
       <c r="J16">
-        <v>0.04271735707084989</v>
+        <v>1.758373793877078E-09</v>
       </c>
       <c r="K16">
-        <v>0.01839185497508083</v>
+        <v>4.033874748846599E-05</v>
       </c>
       <c r="L16">
-        <v>0.0006385207316637178</v>
+        <v>1.945665935367659E-09</v>
       </c>
       <c r="M16">
-        <v>0.0005343665375314463</v>
+        <v>1.943304139872167E-09</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -981,68 +1017,95 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>-0.6999094786017106</v>
+        <v>-0.0002144720849258486</v>
       </c>
       <c r="F17">
-        <v>4.178800875840673</v>
+        <v>8.336368421167271E-06</v>
       </c>
       <c r="G17">
-        <v>4.066746997526971</v>
+        <v>1.316684930640294E-06</v>
       </c>
       <c r="H17">
-        <v>0.1421348427320567</v>
+        <v>2.168190164791682E-05</v>
       </c>
       <c r="I17">
-        <v>0.07039520635324058</v>
+        <v>1.922994564719176E-09</v>
       </c>
       <c r="J17">
-        <v>0.04271735707084989</v>
+        <v>1.758373793877078E-09</v>
       </c>
       <c r="K17">
-        <v>0.01839185497508083</v>
+        <v>4.033874748846599E-05</v>
       </c>
       <c r="L17">
-        <v>0.0006385207316637178</v>
+        <v>1.945665935367659E-09</v>
       </c>
       <c r="M17">
-        <v>0.0005343665375314463</v>
+        <v>1.943304139872167E-09</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E18">
+        <v>0.007048338896217496</v>
+      </c>
+      <c r="F18">
+        <v>0.0001527339526123465</v>
+      </c>
+      <c r="G18">
+        <v>0.0001381315171326805</v>
+      </c>
+      <c r="H18">
+        <v>1.84446094366096E-07</v>
+      </c>
+      <c r="I18">
+        <v>1.384681615131152E-14</v>
+      </c>
+      <c r="J18">
+        <v>1.383670946399082E-14</v>
+      </c>
+      <c r="K18">
+        <v>0.0003486512894174307</v>
+      </c>
+      <c r="L18">
+        <v>4.697690863719423E-08</v>
+      </c>
+      <c r="M18">
+        <v>4.701483017177481E-08</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E19">
-        <v>-0.6739893349998836</v>
+        <v>0.007075978366416692</v>
       </c>
       <c r="F19">
-        <v>3.936900288545336</v>
+        <v>2.263211062356349E-05</v>
       </c>
       <c r="G19">
-        <v>3.832599703020999</v>
+        <v>2.133843775716282E-05</v>
       </c>
       <c r="H19">
-        <v>3.914946398742432E-06</v>
+        <v>4.955107630319862E-08</v>
       </c>
       <c r="I19">
-        <v>2.906164938836494E-12</v>
+        <v>1.8722767588752E-16</v>
       </c>
       <c r="J19">
-        <v>2.659717241716696E-12</v>
+        <v>1.856039591028094E-16</v>
       </c>
       <c r="K19">
-        <v>0.01512556473270369</v>
+        <v>9.452878061942556E-05</v>
       </c>
       <c r="L19">
-        <v>0.0003662195566938299</v>
+        <v>1.357640163417291E-10</v>
       </c>
       <c r="M19">
-        <v>0.0003133184440500382</v>
+        <v>1.348201814836058E-10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1050,31 +1113,31 @@
         <v>29</v>
       </c>
       <c r="E20">
-        <v>-0.6739893349998836</v>
+        <v>0.007075978366416692</v>
       </c>
       <c r="F20">
-        <v>3.936900288545336</v>
+        <v>2.263211062356349E-05</v>
       </c>
       <c r="G20">
-        <v>3.832599703020999</v>
+        <v>2.133843775716282E-05</v>
       </c>
       <c r="H20">
-        <v>3.914946398742432E-06</v>
+        <v>4.955107630319862E-08</v>
       </c>
       <c r="I20">
-        <v>2.906164938836494E-12</v>
+        <v>1.8722767588752E-16</v>
       </c>
       <c r="J20">
-        <v>2.659717241716696E-12</v>
+        <v>1.856039591028094E-16</v>
       </c>
       <c r="K20">
-        <v>0.01512556473270369</v>
+        <v>9.452878061942556E-05</v>
       </c>
       <c r="L20">
-        <v>0.0003662195566938299</v>
+        <v>1.357640163417291E-10</v>
       </c>
       <c r="M20">
-        <v>0.0003133184440500382</v>
+        <v>1.348201814836058E-10</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1082,31 +1145,31 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>-0.6270459908690745</v>
+        <v>1.959804056648239E-06</v>
       </c>
       <c r="F21">
-        <v>3.947680643595106</v>
+        <v>4.298119671357475E-06</v>
       </c>
       <c r="G21">
-        <v>3.692774285368457</v>
+        <v>-1.383309104355598E-06</v>
       </c>
       <c r="H21">
-        <v>0.04613895650207985</v>
+        <v>3.769088239556561E-07</v>
       </c>
       <c r="I21">
-        <v>0.01278037699386723</v>
+        <v>4.000730894164373E-13</v>
       </c>
       <c r="J21">
-        <v>0.005614724107316651</v>
+        <v>4.057943042991756E-14</v>
       </c>
       <c r="K21">
-        <v>0.01006309416802387</v>
+        <v>9.861348368513163E-07</v>
       </c>
       <c r="L21">
-        <v>0.0003240736980197675</v>
+        <v>5.271151386122459E-13</v>
       </c>
       <c r="M21">
-        <v>0.0002748672836802228</v>
+        <v>5.038616579524655E-13</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1114,31 +1177,31 @@
         <v>31</v>
       </c>
       <c r="E22">
-        <v>-0.6272129350836825</v>
+        <v>0.0001860131251966351</v>
       </c>
       <c r="F22">
-        <v>3.947511052721204</v>
+        <v>6.887687052059391E-06</v>
       </c>
       <c r="G22">
-        <v>3.693334934377869</v>
+        <v>-9.563522462812285E-07</v>
       </c>
       <c r="H22">
-        <v>0.1433608025068935</v>
+        <v>2.225745641289322E-06</v>
       </c>
       <c r="I22">
-        <v>0.1233868779373879</v>
+        <v>1.676813647122356E-11</v>
       </c>
       <c r="J22">
-        <v>0.05420679518405652</v>
+        <v>3.515764797321014E-12</v>
       </c>
       <c r="K22">
-        <v>0.01006309416802387</v>
+        <v>2.015933335195811E-06</v>
       </c>
       <c r="L22">
-        <v>0.0003240736980197675</v>
+        <v>4.060592043585097E-12</v>
       </c>
       <c r="M22">
-        <v>0.0002748672836802228</v>
+        <v>3.945789335512037E-12</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1146,68 +1209,95 @@
         <v>32</v>
       </c>
       <c r="E23">
-        <v>-0.6272129350836825</v>
+        <v>0.0001860131251966351</v>
       </c>
       <c r="F23">
-        <v>3.947511052721204</v>
+        <v>6.887687052059391E-06</v>
       </c>
       <c r="G23">
-        <v>3.693334934377869</v>
+        <v>-9.563522462812285E-07</v>
       </c>
       <c r="H23">
-        <v>0.1433608025068935</v>
+        <v>2.225745641289322E-06</v>
       </c>
       <c r="I23">
-        <v>0.1233868779373879</v>
+        <v>1.676813647122356E-11</v>
       </c>
       <c r="J23">
-        <v>0.05420679518405652</v>
+        <v>3.515764797321014E-12</v>
       </c>
       <c r="K23">
-        <v>0.01006309416802387</v>
+        <v>2.015933335195811E-06</v>
       </c>
       <c r="L23">
-        <v>0.0003240736980197675</v>
+        <v>4.060592043585097E-12</v>
       </c>
       <c r="M23">
-        <v>0.0002748672836802228</v>
+        <v>3.945789335512037E-12</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E24">
+        <v>0.01143641912412727</v>
+      </c>
+      <c r="F24">
+        <v>8.642161448091815E-05</v>
+      </c>
+      <c r="G24">
+        <v>7.756925547959815E-05</v>
+      </c>
+      <c r="H24">
+        <v>8.736292356318004E-05</v>
+      </c>
+      <c r="I24">
+        <v>2.1580709279565E-09</v>
+      </c>
+      <c r="J24">
+        <v>2.105242540914173E-09</v>
+      </c>
+      <c r="K24">
+        <v>0.0003235792745324306</v>
+      </c>
+      <c r="L24">
+        <v>2.273753585088633E-08</v>
+      </c>
+      <c r="M24">
+        <v>2.219779971211617E-08</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25">
-        <v>-0.6240777531038456</v>
+        <v>0.01664945516026482</v>
       </c>
       <c r="F25">
-        <v>3.802962768680713</v>
+        <v>0.0001693705925941238</v>
       </c>
       <c r="G25">
-        <v>3.543290986128226</v>
+        <v>0.000149537058998303</v>
       </c>
       <c r="H25">
-        <v>0.002258858655729873</v>
+        <v>1.41373907746232E-06</v>
       </c>
       <c r="I25">
-        <v>0.0001842408543127982</v>
+        <v>7.30047368109126E-13</v>
       </c>
       <c r="J25">
-        <v>6.487886009671702E-05</v>
+        <v>7.126998999441604E-13</v>
       </c>
       <c r="K25">
-        <v>0.02026442096712497</v>
+        <v>0.0002391891593518394</v>
       </c>
       <c r="L25">
-        <v>0.0004544726456744286</v>
+        <v>1.847221489921052E-08</v>
       </c>
       <c r="M25">
-        <v>0.0003924256401492306</v>
+        <v>1.804198138130919E-08</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1215,31 +1305,31 @@
         <v>35</v>
       </c>
       <c r="E26">
-        <v>-0.6562824383052545</v>
+        <v>0.01280264361116186</v>
       </c>
       <c r="F26">
-        <v>3.854889204372367</v>
+        <v>4.630123976433341E-05</v>
       </c>
       <c r="G26">
-        <v>3.724971216269676</v>
+        <v>4.196067875640344E-05</v>
       </c>
       <c r="H26">
-        <v>0.001511433837935698</v>
+        <v>2.231439456564559E-05</v>
       </c>
       <c r="I26">
-        <v>1.421543934015002E-06</v>
+        <v>1.64801397655328E-10</v>
       </c>
       <c r="J26">
-        <v>1.244218592928992E-06</v>
+        <v>1.609346014572481E-10</v>
       </c>
       <c r="K26">
-        <v>0.01809689311962439</v>
+        <v>0.00018203289845917</v>
       </c>
       <c r="L26">
-        <v>0.0004134221058997857</v>
+        <v>8.168899662019224E-09</v>
       </c>
       <c r="M26">
-        <v>0.0003557596462272005</v>
+        <v>7.973869879683533E-09</v>
       </c>
     </row>
   </sheetData>
